--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N2">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O2">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P2">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q2">
-        <v>20.77875115294433</v>
+        <v>32.64313155896066</v>
       </c>
       <c r="R2">
-        <v>187.008760376499</v>
+        <v>293.788184030646</v>
       </c>
       <c r="S2">
-        <v>0.01559393812458442</v>
+        <v>0.03382364557185576</v>
       </c>
       <c r="T2">
-        <v>0.01559393812458441</v>
+        <v>0.03382364557185576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N3">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O3">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P3">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q3">
-        <v>21.23708185656466</v>
+        <v>8.971729711839998</v>
       </c>
       <c r="R3">
-        <v>191.133736709082</v>
+        <v>80.74556740656</v>
       </c>
       <c r="S3">
-        <v>0.01593790396643146</v>
+        <v>0.009296185489791458</v>
       </c>
       <c r="T3">
-        <v>0.01593790396643146</v>
+        <v>0.009296185489791458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>4084.137207</v>
       </c>
       <c r="I4">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J4">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N4">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O4">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P4">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q4">
-        <v>457.4002237398269</v>
+        <v>668.4974773510589</v>
       </c>
       <c r="R4">
-        <v>4116.602013658443</v>
+        <v>6016.477296159531</v>
       </c>
       <c r="S4">
-        <v>0.3432675397413975</v>
+        <v>0.6926731799233606</v>
       </c>
       <c r="T4">
-        <v>0.3432675397413976</v>
+        <v>0.6926731799233605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>4084.137207</v>
       </c>
       <c r="I5">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J5">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N5">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O5">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P5">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q5">
-        <v>467.4894040201859</v>
+        <v>183.73171915224</v>
       </c>
       <c r="R5">
-        <v>4207.404636181674</v>
+        <v>1653.58547237016</v>
       </c>
       <c r="S5">
-        <v>0.3508392196687256</v>
+        <v>0.1903762369639199</v>
       </c>
       <c r="T5">
-        <v>0.3508392196687257</v>
+        <v>0.1903762369639199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H6">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I6">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J6">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N6">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O6">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P6">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q6">
-        <v>84.334089584762</v>
+        <v>22.014063504632</v>
       </c>
       <c r="R6">
-        <v>759.0068062628579</v>
+        <v>198.126571541688</v>
       </c>
       <c r="S6">
-        <v>0.06329064557816744</v>
+        <v>0.02281018535957845</v>
       </c>
       <c r="T6">
-        <v>0.06329064557816741</v>
+        <v>0.02281018535957844</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H7">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I7">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J7">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N7">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O7">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P7">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q7">
-        <v>86.194302565516</v>
+        <v>6.050406875519999</v>
       </c>
       <c r="R7">
-        <v>775.7487230896439</v>
+        <v>54.45366187968001</v>
       </c>
       <c r="S7">
-        <v>0.06468668934936954</v>
+        <v>0.006269215236089423</v>
       </c>
       <c r="T7">
-        <v>0.06468668934936952</v>
+        <v>0.006269215236089422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H8">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I8">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J8">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N8">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O8">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P8">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q8">
-        <v>9.09752234140133</v>
+        <v>25.94217706853101</v>
       </c>
       <c r="R8">
-        <v>81.87770107261198</v>
+        <v>233.479593616779</v>
       </c>
       <c r="S8">
-        <v>0.006827465203977591</v>
+        <v>0.02688035616140054</v>
       </c>
       <c r="T8">
-        <v>0.00682746520397759</v>
+        <v>0.02688035616140054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H9">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I9">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J9">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N9">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O9">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P9">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q9">
-        <v>9.298192429090664</v>
+        <v>7.130020610160001</v>
       </c>
       <c r="R9">
-        <v>83.68373186181599</v>
+        <v>64.17018549144001</v>
       </c>
       <c r="S9">
-        <v>0.006978063134904685</v>
+        <v>0.007387872379905854</v>
       </c>
       <c r="T9">
-        <v>0.006978063134904685</v>
+        <v>0.007387872379905853</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H10">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I10">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J10">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N10">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O10">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P10">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q10">
-        <v>87.36617365598434</v>
+        <v>7.936069135902112</v>
       </c>
       <c r="R10">
-        <v>786.295562903859</v>
+        <v>71.424622223119</v>
       </c>
       <c r="S10">
-        <v>0.06556614957969061</v>
+        <v>0.008223071037215254</v>
       </c>
       <c r="T10">
-        <v>0.06556614957969061</v>
+        <v>0.008223071037215252</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H11">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I11">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J11">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N11">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O11">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P11">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q11">
-        <v>89.29326732728467</v>
+        <v>2.181171470426666</v>
       </c>
       <c r="R11">
-        <v>803.639405945562</v>
+        <v>19.63054323384</v>
       </c>
       <c r="S11">
-        <v>0.0670123856527511</v>
+        <v>0.002260051876882611</v>
       </c>
       <c r="T11">
-        <v>0.0670123856527511</v>
+        <v>0.002260051876882611</v>
       </c>
     </row>
   </sheetData>
